--- a/data/steel/factories/iron_IBF_factory-0C.xlsx
+++ b/data/steel/factories/iron_IBF_factory-0C.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="47">
   <si>
     <t>Inflow</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>inflow</t>
-  </si>
-  <si>
-    <t>steel</t>
   </si>
   <si>
     <t>lime</t>
@@ -562,117 +559,117 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,10 +685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -711,123 +708,123 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -839,21 +836,21 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -865,70 +862,70 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>38</v>
@@ -937,27 +934,27 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -966,201 +963,227 @@
         <v>45</v>
       </c>
       <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
         <v>22</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
         <v>22</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" t="s">
         <v>22</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
         <v>22</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="4" t="s">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
         <v>22</v>
       </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="4"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E19" s="4"/>
       <c r="G19" s="1"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="4"/>
       <c r="G20" s="1"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E21" s="4"/>
       <c r="G21" s="1"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="4"/>
       <c r="G22" s="1"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G23" s="1"/>
       <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="1"/>
+      <c r="H24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1187,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1198,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -1209,7 +1232,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
